--- a/Beijing Inn Order System/FoodItems.xlsx
+++ b/Beijing Inn Order System/FoodItems.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>头盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,14 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.5(1/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.5(1/4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姜冲鸭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,10 +651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(整只)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hot Mixed Hors D'oevres (per Person)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,12 +670,6 @@
     <t>Honey BBQ Spare Ribs in Syrup</t>
   </si>
   <si>
-    <t>Smoked Shreadded Chicken</t>
-  </si>
-  <si>
-    <t>Smoked Shreaded Duck</t>
-  </si>
-  <si>
     <t>Spicy Chicken Wings in Salt &amp; Pepper</t>
   </si>
   <si>
@@ -757,9 +739,6 @@
     <t>Won Ton Soup</t>
   </si>
   <si>
-    <t>Shreadded Roast Duck Soup</t>
-  </si>
-  <si>
     <t>Mixed Seafood Soup</t>
   </si>
   <si>
@@ -1045,9 +1024,6 @@
     <t>Shredded Roast Duck Chow Mein</t>
   </si>
   <si>
-    <t>Cow Mein with Bean Sprouts</t>
-  </si>
-  <si>
     <t>Fried Vermicelli with Shredded Chicken</t>
   </si>
   <si>
@@ -1133,6 +1109,18 @@
   </si>
   <si>
     <t>Set Meal D</t>
+  </si>
+  <si>
+    <t>Chow Mein with Bean Sprouts</t>
+  </si>
+  <si>
+    <t>Smoked Shredded Chicken</t>
+  </si>
+  <si>
+    <t>Smoked Shredded Duck</t>
+  </si>
+  <si>
+    <t>Shredded Roast Duck Soup</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1500,7 +1488,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1511,7 +1499,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1522,7 +1510,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1533,7 +1521,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1544,7 +1532,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1555,7 +1543,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1566,7 +1554,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1577,7 +1565,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1588,7 +1576,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1599,7 +1587,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1610,7 +1598,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1621,7 +1609,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1632,7 +1620,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1643,7 +1631,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1654,7 +1642,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1665,7 +1653,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1676,7 +1664,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1687,7 +1675,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1698,7 +1686,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1709,7 +1697,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1720,7 +1708,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1731,7 +1719,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1742,7 +1730,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1753,7 +1741,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1764,7 +1752,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1775,7 +1763,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1786,7 +1774,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1797,7 +1785,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1808,7 +1796,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1819,7 +1807,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -1830,7 +1818,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -1841,7 +1829,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -1852,7 +1840,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -1863,7 +1851,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -1874,7 +1862,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1885,7 +1873,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -1896,7 +1884,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -1907,30 +1895,30 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
       <c r="C38">
+        <v>-2</v>
+      </c>
+      <c r="D38">
         <v>23.5</v>
       </c>
-      <c r="D38" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" t="s">
-        <v>39</v>
+      <c r="E38">
+        <v>13.5</v>
+      </c>
+      <c r="F38">
+        <v>7.5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>4.9000000000000004</v>
@@ -1938,10 +1926,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>4.9000000000000004</v>
@@ -1949,10 +1937,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>4.9000000000000004</v>
@@ -1960,10 +1948,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1971,10 +1959,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>5.9</v>
@@ -1982,10 +1970,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>4.9000000000000004</v>
@@ -1993,10 +1981,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <v>4.9000000000000004</v>
@@ -2004,10 +1992,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46">
         <v>4.9000000000000004</v>
@@ -2015,10 +2003,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>4.9000000000000004</v>
@@ -2026,10 +2014,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>4.9000000000000004</v>
@@ -2037,10 +2025,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>4.9000000000000004</v>
@@ -2048,10 +2036,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <v>4.9000000000000004</v>
@@ -2059,10 +2047,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51">
         <v>4.9000000000000004</v>
@@ -2070,10 +2058,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52">
         <v>4.9000000000000004</v>
@@ -2081,10 +2069,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53">
         <v>5.0999999999999996</v>
@@ -2092,10 +2080,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54">
         <v>4.9000000000000004</v>
@@ -2103,10 +2091,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55">
         <v>4.9000000000000004</v>
@@ -2114,10 +2102,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56">
         <v>4.9000000000000004</v>
@@ -2125,10 +2113,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>5.0999999999999996</v>
@@ -2136,10 +2124,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>6.8</v>
@@ -2147,10 +2135,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>6.8</v>
@@ -2158,10 +2146,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>6.8</v>
@@ -2169,10 +2157,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>6.8</v>
@@ -2180,10 +2168,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>4.2</v>
@@ -2191,10 +2179,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>4.2</v>
@@ -2202,10 +2190,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>4.2</v>
@@ -2213,10 +2201,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>3.8</v>
@@ -2224,10 +2212,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>4.2</v>
@@ -2235,10 +2223,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>4.2</v>
@@ -2246,10 +2234,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>3.8</v>
@@ -2257,10 +2245,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <v>3.8</v>
@@ -2268,10 +2256,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70">
         <v>3.8</v>
@@ -2279,10 +2267,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>3.8</v>
@@ -2290,10 +2278,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <v>4.2</v>
@@ -2301,10 +2289,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <v>3.8</v>
@@ -2312,10 +2300,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <v>3.8</v>
@@ -2323,10 +2311,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <v>3.8</v>
@@ -2334,10 +2322,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C76">
         <v>3.8</v>
@@ -2345,10 +2333,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77">
         <v>4.2</v>
@@ -2356,10 +2344,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <v>4.2</v>
@@ -2367,10 +2355,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79">
         <v>4.2</v>
@@ -2378,10 +2366,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <v>4.2</v>
@@ -2389,10 +2377,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C81">
         <v>4.2</v>
@@ -2400,10 +2388,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C82">
         <v>4.2</v>
@@ -2411,10 +2399,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C83">
         <v>4.2</v>
@@ -2422,10 +2410,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84">
         <v>4.2</v>
@@ -2433,10 +2421,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <v>4.2</v>
@@ -2444,10 +2432,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C86">
         <v>4.2</v>
@@ -2455,10 +2443,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C87">
         <v>4.2</v>
@@ -2466,10 +2454,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C88">
         <v>4.2</v>
@@ -2477,10 +2465,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C89">
         <v>4.5</v>
@@ -2488,10 +2476,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C90">
         <v>4.2</v>
@@ -2499,10 +2487,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C91">
         <v>4.2</v>
@@ -2510,10 +2498,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92">
         <v>4.5</v>
@@ -2521,10 +2509,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C93">
         <v>4.5</v>
@@ -2532,10 +2520,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C94">
         <v>4.5</v>
@@ -2543,10 +2531,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C95">
         <v>4.5</v>
@@ -2554,10 +2542,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C96">
         <v>6.3</v>
@@ -2565,10 +2553,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C97">
         <v>4.2</v>
@@ -2576,10 +2564,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C98">
         <v>4.2</v>
@@ -2587,10 +2575,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C99">
         <v>3.8</v>
@@ -2598,10 +2586,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C100">
         <v>4.2</v>
@@ -2609,10 +2597,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101">
         <v>4.9000000000000004</v>
@@ -2620,10 +2608,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2631,10 +2619,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2642,10 +2630,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104">
         <v>4.5</v>
@@ -2653,10 +2641,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2664,10 +2652,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2675,10 +2663,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -2686,10 +2674,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -2697,10 +2685,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -2708,10 +2696,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C110">
         <v>3.8</v>
@@ -2719,10 +2707,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C111">
         <v>3.8</v>
@@ -2730,10 +2718,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C112">
         <v>3.8</v>
@@ -2741,10 +2729,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C113">
         <v>3.8</v>
@@ -2752,10 +2740,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C114">
         <v>3.8</v>
@@ -2763,10 +2751,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C115">
         <v>4.2</v>
@@ -2774,10 +2762,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C116">
         <v>4.2</v>
@@ -2785,10 +2773,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C117">
         <v>4.9000000000000004</v>
@@ -2796,10 +2784,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C118">
         <v>4.2</v>
@@ -2807,10 +2795,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C119">
         <v>-1</v>
@@ -2824,10 +2812,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C120">
         <v>-1</v>
@@ -2841,10 +2829,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C121">
         <v>-1</v>
@@ -2858,10 +2846,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C122">
         <v>-1</v>
@@ -2875,10 +2863,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C123">
         <v>-1</v>
@@ -2892,10 +2880,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C124">
         <v>-1</v>
@@ -2909,10 +2897,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C125">
         <v>-1</v>
@@ -2926,10 +2914,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C126">
         <v>-1</v>
@@ -2943,10 +2931,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C127">
         <v>-1</v>
@@ -2960,10 +2948,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C128">
         <v>-1</v>
@@ -2977,10 +2965,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C129">
         <v>-1</v>
@@ -2994,10 +2982,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C130">
         <v>-1</v>
@@ -3011,10 +2999,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C131">
         <v>-1</v>
@@ -3028,10 +3016,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C132">
         <v>-1</v>
@@ -3045,10 +3033,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C133">
         <v>-1</v>
@@ -3062,10 +3050,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C134">
         <v>-1</v>
@@ -3079,10 +3067,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C135">
         <v>-1</v>
@@ -3096,10 +3084,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C136">
         <v>-1</v>
@@ -3113,10 +3101,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C137">
         <v>-1</v>
@@ -3130,10 +3118,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C138">
         <v>-1</v>
@@ -3147,10 +3135,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C139">
         <v>-1</v>
@@ -3164,10 +3152,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C140">
         <v>-1</v>
@@ -3181,10 +3169,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C141">
         <v>-1</v>
@@ -3198,10 +3186,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C142">
         <v>-1</v>
@@ -3215,10 +3203,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C143">
         <v>8.5</v>
@@ -3226,10 +3214,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C144">
         <v>4.8</v>
@@ -3237,10 +3225,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C145">
         <v>6.5</v>
@@ -3248,10 +3236,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C146">
         <v>8.5</v>
@@ -3259,10 +3247,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C147">
         <v>1.3</v>
@@ -3270,10 +3258,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C148">
         <v>2.8</v>
@@ -3281,10 +3269,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C149">
         <v>2.8</v>
@@ -3292,10 +3280,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C150">
         <v>3.2</v>
@@ -3303,10 +3291,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C151">
         <v>3.2</v>
@@ -3314,10 +3302,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B152" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C152">
         <v>2.8</v>
@@ -3325,10 +3313,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C153">
         <v>2.5</v>
@@ -3336,10 +3324,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C154">
         <v>8.8000000000000007</v>
@@ -3347,10 +3335,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C155">
         <v>12</v>
@@ -3358,10 +3346,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C156">
         <v>13.8</v>
@@ -3369,10 +3357,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C157">
         <v>15.5</v>
